--- a/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7.xlsx
+++ b/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.2.7 170117/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.2.7 20170117\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="6440" windowWidth="28200" windowHeight="11020"/>
+    <workbookView xWindow="540" yWindow="6444" windowWidth="28200" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1302,6 +1302,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,111 +1433,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1449,7 +1449,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="5" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1810,36 +1810,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="44" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="60.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="44" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="44" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="10" style="45" customWidth="1"/>
+    <col min="8" max="8" width="11" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="10" style="45" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="45" customWidth="1"/>
-    <col min="12" max="14" width="11.83203125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="11" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="45" customWidth="1"/>
+    <col min="12" max="14" width="11.77734375" style="44" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="44" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="45" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" style="45" customWidth="1"/>
     <col min="19" max="20" width="12" style="46" customWidth="1"/>
     <col min="21" max="21" width="17" style="46" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="46" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="45" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="46" customWidth="1"/>
+    <col min="23" max="23" width="41.77734375" style="45" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="42" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,929 +1910,929 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="85">
         <v>1</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="88">
         <v>42383</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="97">
+      <c r="J2" s="88">
         <v>42383</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="98" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="97">
+      <c r="Q2" s="88">
         <v>42385</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="90">
+      <c r="S2" s="81">
         <v>7483</v>
       </c>
-      <c r="T2" s="90"/>
-      <c r="U2" s="99" t="s">
+      <c r="T2" s="81"/>
+      <c r="U2" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-    </row>
-    <row r="3" spans="1:24" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94">
+      <c r="V2" s="91"/>
+      <c r="W2" s="92"/>
+    </row>
+    <row r="3" spans="1:24" s="73" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="88">
         <v>42751</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="88">
         <v>42751</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="98" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98" t="s">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="99">
+      <c r="S3" s="80"/>
+      <c r="T3" s="90">
         <v>7620</v>
       </c>
-      <c r="U3" s="99"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="100" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="94">
+    <row r="4" spans="1:24" s="73" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="85">
         <v>3</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="88">
         <v>42751</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="88">
         <v>42751</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="98" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="97">
+      <c r="Q4" s="88">
         <v>42751</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90">
+      <c r="S4" s="81"/>
+      <c r="T4" s="81">
         <v>7506</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-    </row>
-    <row r="5" spans="1:24" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="94">
+      <c r="U4" s="81"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="91"/>
+    </row>
+    <row r="5" spans="1:24" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="85">
         <v>4</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="97">
         <v>42751</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="106">
+      <c r="J5" s="97">
         <v>42751</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="107" t="s">
+      <c r="K5" s="96"/>
+      <c r="L5" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="107" t="s">
+      <c r="P5" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="106">
+      <c r="Q5" s="97">
         <v>42751</v>
       </c>
-      <c r="R5" s="107" t="s">
+      <c r="R5" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="89"/>
+      <c r="T5" s="80"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="109"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="100"/>
       <c r="X5" s="62"/>
     </row>
-    <row r="6" spans="1:24" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="94">
+    <row r="6" spans="1:24" s="43" customFormat="1" ht="45">
+      <c r="A6" s="85">
         <v>5</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="106">
+      <c r="H6" s="97">
         <v>42751</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="106">
+      <c r="J6" s="97">
         <v>42751</v>
       </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="103" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="107" t="s">
+      <c r="P6" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="106">
+      <c r="Q6" s="97">
         <v>42751</v>
       </c>
-      <c r="R6" s="107" t="s">
+      <c r="R6" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="T6" s="89"/>
+      <c r="T6" s="80"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="110"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="101"/>
       <c r="X6" s="62"/>
     </row>
-    <row r="7" spans="1:24" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="94">
+    <row r="7" spans="1:24" s="43" customFormat="1" ht="30">
+      <c r="A7" s="85">
         <v>6</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="97">
         <v>42752</v>
       </c>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="106">
+      <c r="J7" s="97">
         <v>42752</v>
       </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="103" t="s">
+      <c r="K7" s="96"/>
+      <c r="L7" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="106">
+      <c r="Q7" s="97">
         <v>42752</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="89" t="s">
+      <c r="S7" s="80" t="s">
         <v>110</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="110"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="101"/>
       <c r="X7" s="62"/>
     </row>
-    <row r="8" spans="1:24" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="94">
+    <row r="8" spans="1:24" s="73" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="85">
         <v>7</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="88">
         <v>42751</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="88">
         <v>42751</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="98" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O8" s="96" t="s">
+      <c r="O8" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="97">
+      <c r="Q8" s="88">
         <v>42751</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="90"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="101"/>
-    </row>
-    <row r="9" spans="1:24" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="94">
+      <c r="T8" s="81"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="92"/>
+    </row>
+    <row r="9" spans="1:24" s="73" customFormat="1" ht="30">
+      <c r="A9" s="85">
         <v>8</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="88">
         <v>42751</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="88">
         <v>42751</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="98" t="s">
+      <c r="K9" s="87"/>
+      <c r="L9" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="96" t="s">
+      <c r="O9" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="88">
         <v>42751</v>
       </c>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="101"/>
-    </row>
-    <row r="10" spans="1:24" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="94">
+      <c r="T9" s="81"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="92"/>
+    </row>
+    <row r="10" spans="1:24" s="73" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="85">
         <v>9</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="88">
         <v>42751</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="88">
         <v>42751</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="98" t="s">
+      <c r="K10" s="87"/>
+      <c r="L10" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="N10" s="85" t="s">
+      <c r="N10" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O10" s="96" t="s">
+      <c r="O10" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="88">
         <v>42751</v>
       </c>
-      <c r="R10" s="98" t="s">
+      <c r="R10" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="91" t="s">
+      <c r="S10" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="90"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="101"/>
-    </row>
-    <row r="11" spans="1:24" s="43" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="94">
+      <c r="T10" s="81"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="92"/>
+    </row>
+    <row r="11" spans="1:24" s="43" customFormat="1" ht="249" customHeight="1">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="106">
+      <c r="H11" s="97">
         <v>42751</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="97">
         <v>42751</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="107" t="s">
+      <c r="K11" s="96"/>
+      <c r="L11" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="107" t="s">
+      <c r="O11" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="106">
+      <c r="P11" s="98"/>
+      <c r="Q11" s="97">
         <v>42746</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="92" t="s">
+      <c r="S11" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="93"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="109" t="s">
+      <c r="T11" s="84"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="100" t="s">
         <v>132</v>
       </c>
       <c r="X11" s="62"/>
     </row>
-    <row r="12" spans="1:24" s="43" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="94">
+    <row r="12" spans="1:24" s="43" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A12" s="85">
         <v>11</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="97">
         <v>42751</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="106">
+      <c r="J12" s="97">
         <v>42751</v>
       </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="107" t="s">
+      <c r="K12" s="96"/>
+      <c r="L12" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="M12" s="107" t="s">
+      <c r="M12" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="107" t="s">
+      <c r="O12" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="107" t="s">
+      <c r="P12" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="106">
+      <c r="Q12" s="97">
         <v>42751</v>
       </c>
-      <c r="R12" s="107" t="s">
+      <c r="R12" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="S12" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="89"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108" t="s">
+      <c r="T12" s="80"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="W12" s="109" t="s">
+      <c r="W12" s="100" t="s">
         <v>139</v>
       </c>
       <c r="X12" s="62"/>
     </row>
-    <row r="13" spans="1:24" s="43" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="94">
+    <row r="13" spans="1:24" s="43" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A13" s="85">
         <v>12</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="97">
         <v>42751</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="106">
+      <c r="J13" s="97">
         <v>42751</v>
       </c>
-      <c r="K13" s="105"/>
-      <c r="L13" s="107" t="s">
+      <c r="K13" s="96"/>
+      <c r="L13" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="N13" s="105" t="s">
+      <c r="N13" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="O13" s="105" t="s">
+      <c r="O13" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="106">
+      <c r="P13" s="98"/>
+      <c r="Q13" s="97">
         <v>42752</v>
       </c>
-      <c r="R13" s="107" t="s">
+      <c r="R13" s="98" t="s">
         <v>83</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="108" t="s">
+      <c r="V13" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="W13" s="109"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="62"/>
     </row>
-    <row r="14" spans="1:24" s="43" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="94">
+    <row r="14" spans="1:24" s="43" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A14" s="85">
         <v>13</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="97">
         <v>42751</v>
       </c>
-      <c r="I14" s="105" t="s">
+      <c r="I14" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="106">
+      <c r="J14" s="97">
         <v>42751</v>
       </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="107" t="s">
+      <c r="K14" s="96"/>
+      <c r="L14" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="105" t="s">
+      <c r="M14" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="107" t="s">
+      <c r="P14" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" s="106">
+      <c r="Q14" s="97">
         <v>42751</v>
       </c>
-      <c r="R14" s="107" t="s">
+      <c r="R14" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="S14" s="89" t="s">
+      <c r="S14" s="80" t="s">
         <v>137</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="108" t="s">
+      <c r="V14" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="W14" s="110"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="62"/>
     </row>
-    <row r="15" spans="1:24" s="82" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="94">
+    <row r="15" spans="1:24" s="73" customFormat="1" ht="33" customHeight="1">
+      <c r="A15" s="85">
         <v>14</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="102">
         <v>42748</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="102">
         <v>42748</v>
       </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="98" t="s">
+      <c r="K15" s="87"/>
+      <c r="L15" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="96" t="s">
+      <c r="M15" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="87" t="s">
+      <c r="N15" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="O15" s="96" t="s">
+      <c r="O15" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="98" t="s">
+      <c r="P15" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="111">
+      <c r="Q15" s="102">
         <v>42748</v>
       </c>
-      <c r="R15" s="98" t="s">
+      <c r="R15" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="90"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="84"/>
-    </row>
-    <row r="16" spans="1:24" s="83" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="94">
+      <c r="S15" s="81"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="75"/>
+    </row>
+    <row r="16" spans="1:24" s="74" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="85">
         <v>15</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="102">
         <v>42748</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="102">
         <v>42748</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="98" t="s">
+      <c r="K16" s="87"/>
+      <c r="L16" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="N16" s="88" t="s">
+      <c r="N16" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O16" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="98" t="s">
+      <c r="P16" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" s="111">
+      <c r="Q16" s="102">
         <v>42749</v>
       </c>
-      <c r="R16" s="98" t="s">
+      <c r="R16" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="86"/>
-    </row>
-    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="77"/>
+    </row>
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -2857,7 +2857,7 @@
       <c r="V17" s="55"/>
       <c r="W17" s="56"/>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -2882,7 +2882,7 @@
       <c r="V18" s="55"/>
       <c r="W18" s="56"/>
     </row>
-    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -2907,7 +2907,7 @@
       <c r="V19" s="55"/>
       <c r="W19" s="63"/>
     </row>
-    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -2932,7 +2932,7 @@
       <c r="V20" s="55"/>
       <c r="W20" s="63"/>
     </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -2957,7 +2957,7 @@
       <c r="V21" s="55"/>
       <c r="W21" s="63"/>
     </row>
-    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -2982,7 +2982,7 @@
       <c r="V22" s="65"/>
       <c r="W22" s="66"/>
     </row>
-    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -3007,7 +3007,7 @@
       <c r="V23" s="67"/>
       <c r="W23" s="66"/>
     </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -3032,7 +3032,7 @@
       <c r="V24" s="68"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -3057,7 +3057,7 @@
       <c r="V25" s="67"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
@@ -3082,7 +3082,7 @@
       <c r="V26" s="67"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -3107,7 +3107,7 @@
       <c r="V27" s="64"/>
       <c r="W27" s="58"/>
     </row>
-    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -3132,7 +3132,7 @@
       <c r="V28" s="55"/>
       <c r="W28" s="63"/>
     </row>
-    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -3157,7 +3157,7 @@
       <c r="V29" s="55"/>
       <c r="W29" s="63"/>
     </row>
-    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -3182,7 +3182,7 @@
       <c r="V30" s="55"/>
       <c r="W30" s="63"/>
     </row>
-    <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -3207,7 +3207,7 @@
       <c r="V31" s="67"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -3232,7 +3232,7 @@
       <c r="V32" s="55"/>
       <c r="W32" s="61"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3257,7 +3257,7 @@
       <c r="V33" s="55"/>
       <c r="W33" s="63"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3282,7 +3282,7 @@
       <c r="V34" s="55"/>
       <c r="W34" s="63"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3307,7 +3307,7 @@
       <c r="V35" s="55"/>
       <c r="W35" s="63"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3332,7 +3332,7 @@
       <c r="V36" s="55"/>
       <c r="W36" s="63"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3357,7 +3357,7 @@
       <c r="V37" s="55"/>
       <c r="W37" s="63"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3382,7 +3382,7 @@
       <c r="V38" s="55"/>
       <c r="W38" s="63"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3407,7 +3407,7 @@
       <c r="V39" s="55"/>
       <c r="W39" s="63"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3432,7 +3432,7 @@
       <c r="V40" s="55"/>
       <c r="W40" s="63"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3457,7 +3457,7 @@
       <c r="V41" s="55"/>
       <c r="W41" s="63"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3482,7 +3482,7 @@
       <c r="V42" s="55"/>
       <c r="W42" s="63"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" s="47"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -3507,7 +3507,7 @@
       <c r="V43" s="64"/>
       <c r="W43" s="63"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -3532,7 +3532,7 @@
       <c r="V44" s="64"/>
       <c r="W44" s="63"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -3557,7 +3557,7 @@
       <c r="V45" s="55"/>
       <c r="W45" s="56"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15">
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -3582,7 +3582,7 @@
       <c r="V46" s="55"/>
       <c r="W46" s="56"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -3607,7 +3607,7 @@
       <c r="V47" s="55"/>
       <c r="W47" s="56"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -3632,7 +3632,7 @@
       <c r="V48" s="55"/>
       <c r="W48" s="56"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -3657,7 +3657,7 @@
       <c r="V49" s="55"/>
       <c r="W49" s="56"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -3682,7 +3682,7 @@
       <c r="V50" s="55"/>
       <c r="W50" s="56"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="15">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -3707,7 +3707,7 @@
       <c r="V51" s="55"/>
       <c r="W51" s="56"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -3732,7 +3732,7 @@
       <c r="V52" s="55"/>
       <c r="W52" s="56"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="15">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -3757,7 +3757,7 @@
       <c r="V53" s="55"/>
       <c r="W53" s="56"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -3782,7 +3782,7 @@
       <c r="V54" s="55"/>
       <c r="W54" s="56"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -3807,7 +3807,7 @@
       <c r="V55" s="55"/>
       <c r="W55" s="56"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3832,7 +3832,7 @@
       <c r="V56" s="55"/>
       <c r="W56" s="56"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -3857,7 +3857,7 @@
       <c r="V57" s="55"/>
       <c r="W57" s="56"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="15">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -3882,7 +3882,7 @@
       <c r="V58" s="55"/>
       <c r="W58" s="56"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -3907,7 +3907,7 @@
       <c r="V59" s="55"/>
       <c r="W59" s="56"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -3932,7 +3932,7 @@
       <c r="V60" s="55"/>
       <c r="W60" s="56"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -3957,7 +3957,7 @@
       <c r="V61" s="55"/>
       <c r="W61" s="56"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -3982,7 +3982,7 @@
       <c r="V62" s="55"/>
       <c r="W62" s="56"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="15">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -4007,7 +4007,7 @@
       <c r="V63" s="55"/>
       <c r="W63" s="56"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -4032,7 +4032,7 @@
       <c r="V64" s="55"/>
       <c r="W64" s="56"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="15">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -4057,7 +4057,7 @@
       <c r="V65" s="55"/>
       <c r="W65" s="56"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="15">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -4082,7 +4082,7 @@
       <c r="V66" s="55"/>
       <c r="W66" s="56"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="15">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -4107,7 +4107,7 @@
       <c r="V67" s="55"/>
       <c r="W67" s="56"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="15">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -4132,7 +4132,7 @@
       <c r="V68" s="55"/>
       <c r="W68" s="56"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="15">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -4157,7 +4157,7 @@
       <c r="V69" s="55"/>
       <c r="W69" s="56"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="15">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -4182,7 +4182,7 @@
       <c r="V70" s="55"/>
       <c r="W70" s="56"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="15">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -4207,7 +4207,7 @@
       <c r="V71" s="55"/>
       <c r="W71" s="56"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="15">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4232,7 +4232,7 @@
       <c r="V72" s="55"/>
       <c r="W72" s="56"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="15">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -4257,7 +4257,7 @@
       <c r="V73" s="55"/>
       <c r="W73" s="56"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="15">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -4282,7 +4282,7 @@
       <c r="V74" s="55"/>
       <c r="W74" s="56"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -4307,7 +4307,7 @@
       <c r="V75" s="55"/>
       <c r="W75" s="56"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="15">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -4332,7 +4332,7 @@
       <c r="V76" s="55"/>
       <c r="W76" s="56"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="15">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -4357,7 +4357,7 @@
       <c r="V77" s="55"/>
       <c r="W77" s="56"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -4382,7 +4382,7 @@
       <c r="V78" s="55"/>
       <c r="W78" s="56"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -4407,7 +4407,7 @@
       <c r="V79" s="55"/>
       <c r="W79" s="56"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -4432,7 +4432,7 @@
       <c r="V80" s="55"/>
       <c r="W80" s="56"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -4457,7 +4457,7 @@
       <c r="V81" s="55"/>
       <c r="W81" s="56"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -4482,7 +4482,7 @@
       <c r="V82" s="55"/>
       <c r="W82" s="56"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -4507,7 +4507,7 @@
       <c r="V83" s="55"/>
       <c r="W83" s="56"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -4532,7 +4532,7 @@
       <c r="V84" s="55"/>
       <c r="W84" s="56"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -4557,7 +4557,7 @@
       <c r="V85" s="55"/>
       <c r="W85" s="56"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -4582,7 +4582,7 @@
       <c r="V86" s="55"/>
       <c r="W86" s="56"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -4607,7 +4607,7 @@
       <c r="V87" s="55"/>
       <c r="W87" s="56"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -4632,7 +4632,7 @@
       <c r="V88" s="55"/>
       <c r="W88" s="56"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -4657,7 +4657,7 @@
       <c r="V89" s="55"/>
       <c r="W89" s="56"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -4682,7 +4682,7 @@
       <c r="V90" s="55"/>
       <c r="W90" s="56"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -4707,7 +4707,7 @@
       <c r="V91" s="55"/>
       <c r="W91" s="56"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -4732,7 +4732,7 @@
       <c r="V92" s="55"/>
       <c r="W92" s="56"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -4757,7 +4757,7 @@
       <c r="V93" s="55"/>
       <c r="W93" s="56"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -4782,7 +4782,7 @@
       <c r="V94" s="55"/>
       <c r="W94" s="56"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -4807,7 +4807,7 @@
       <c r="V95" s="55"/>
       <c r="W95" s="56"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -4832,7 +4832,7 @@
       <c r="V96" s="55"/>
       <c r="W96" s="56"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -4857,7 +4857,7 @@
       <c r="V97" s="55"/>
       <c r="W97" s="56"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -4882,7 +4882,7 @@
       <c r="V98" s="55"/>
       <c r="W98" s="56"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -4907,7 +4907,7 @@
       <c r="V99" s="55"/>
       <c r="W99" s="56"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
@@ -4932,7 +4932,7 @@
       <c r="V100" s="55"/>
       <c r="W100" s="56"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
@@ -4957,7 +4957,7 @@
       <c r="V101" s="55"/>
       <c r="W101" s="56"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
@@ -4982,7 +4982,7 @@
       <c r="V102" s="55"/>
       <c r="W102" s="56"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
@@ -5007,7 +5007,7 @@
       <c r="V103" s="55"/>
       <c r="W103" s="56"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
@@ -5032,7 +5032,7 @@
       <c r="V104" s="55"/>
       <c r="W104" s="56"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
@@ -5057,7 +5057,7 @@
       <c r="V105" s="55"/>
       <c r="W105" s="56"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
@@ -5082,7 +5082,7 @@
       <c r="V106" s="55"/>
       <c r="W106" s="56"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -5107,7 +5107,7 @@
       <c r="V107" s="55"/>
       <c r="W107" s="56"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -5132,7 +5132,7 @@
       <c r="V108" s="55"/>
       <c r="W108" s="56"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
@@ -5157,7 +5157,7 @@
       <c r="V109" s="55"/>
       <c r="W109" s="56"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
@@ -5182,7 +5182,7 @@
       <c r="V110" s="55"/>
       <c r="W110" s="56"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
@@ -5207,7 +5207,7 @@
       <c r="V111" s="55"/>
       <c r="W111" s="56"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
@@ -5232,7 +5232,7 @@
       <c r="V112" s="55"/>
       <c r="W112" s="56"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
@@ -5257,7 +5257,7 @@
       <c r="V113" s="55"/>
       <c r="W113" s="56"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -5282,7 +5282,7 @@
       <c r="V114" s="55"/>
       <c r="W114" s="56"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
@@ -5307,7 +5307,7 @@
       <c r="V115" s="55"/>
       <c r="W115" s="56"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
@@ -5332,7 +5332,7 @@
       <c r="V116" s="55"/>
       <c r="W116" s="56"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
@@ -5357,7 +5357,7 @@
       <c r="V117" s="55"/>
       <c r="W117" s="56"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -5382,7 +5382,7 @@
       <c r="V118" s="55"/>
       <c r="W118" s="56"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
@@ -5407,7 +5407,7 @@
       <c r="V119" s="55"/>
       <c r="W119" s="56"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
@@ -5432,7 +5432,7 @@
       <c r="V120" s="55"/>
       <c r="W120" s="56"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
@@ -5457,7 +5457,7 @@
       <c r="V121" s="55"/>
       <c r="W121" s="56"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
@@ -5482,7 +5482,7 @@
       <c r="V122" s="55"/>
       <c r="W122" s="56"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
@@ -5507,7 +5507,7 @@
       <c r="V123" s="55"/>
       <c r="W123" s="56"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
@@ -5532,7 +5532,7 @@
       <c r="V124" s="55"/>
       <c r="W124" s="56"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
@@ -5557,7 +5557,7 @@
       <c r="V125" s="55"/>
       <c r="W125" s="56"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
@@ -5582,7 +5582,7 @@
       <c r="V126" s="55"/>
       <c r="W126" s="56"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
@@ -5607,7 +5607,7 @@
       <c r="V127" s="55"/>
       <c r="W127" s="56"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
@@ -5632,7 +5632,7 @@
       <c r="V128" s="55"/>
       <c r="W128" s="56"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -5657,7 +5657,7 @@
       <c r="V129" s="55"/>
       <c r="W129" s="56"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
@@ -5682,7 +5682,7 @@
       <c r="V130" s="55"/>
       <c r="W130" s="56"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
@@ -5707,7 +5707,7 @@
       <c r="V131" s="55"/>
       <c r="W131" s="56"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="55"/>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
@@ -5732,7 +5732,7 @@
       <c r="V132" s="55"/>
       <c r="W132" s="56"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="55"/>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -5757,7 +5757,7 @@
       <c r="V133" s="55"/>
       <c r="W133" s="56"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="55"/>
       <c r="B134" s="55"/>
       <c r="C134" s="55"/>
@@ -5778,7 +5778,7 @@
       <c r="R134" s="56"/>
       <c r="W134" s="56"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="55"/>
       <c r="B135" s="55"/>
       <c r="C135" s="55"/>
@@ -5799,7 +5799,7 @@
       <c r="R135" s="56"/>
       <c r="W135" s="56"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="55"/>
       <c r="B136" s="55"/>
       <c r="C136" s="55"/>
@@ -5820,7 +5820,7 @@
       <c r="R136" s="56"/>
       <c r="W136" s="56"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="55"/>
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
@@ -5841,7 +5841,7 @@
       <c r="R137" s="56"/>
       <c r="W137" s="56"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="55"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55"/>
@@ -5862,7 +5862,7 @@
       <c r="R138" s="56"/>
       <c r="W138" s="56"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="55"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -5883,7 +5883,7 @@
       <c r="R139" s="56"/>
       <c r="W139" s="56"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="55"/>
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
@@ -5904,7 +5904,7 @@
       <c r="R140" s="56"/>
       <c r="W140" s="56"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="55"/>
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
@@ -5925,7 +5925,7 @@
       <c r="R141" s="56"/>
       <c r="W141" s="56"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="55"/>
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
@@ -5946,7 +5946,7 @@
       <c r="R142" s="56"/>
       <c r="W142" s="56"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="55"/>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -5967,7 +5967,7 @@
       <c r="R143" s="56"/>
       <c r="W143" s="56"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="55"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55"/>
@@ -5988,7 +5988,7 @@
       <c r="R144" s="56"/>
       <c r="W144" s="56"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="55"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
@@ -6009,7 +6009,7 @@
       <c r="R145" s="56"/>
       <c r="W145" s="56"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="55"/>
       <c r="B146" s="55"/>
       <c r="C146" s="55"/>
@@ -6030,7 +6030,7 @@
       <c r="R146" s="56"/>
       <c r="W146" s="56"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="55"/>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
@@ -6051,7 +6051,7 @@
       <c r="R147" s="56"/>
       <c r="W147" s="56"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="55"/>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
@@ -6072,7 +6072,7 @@
       <c r="R148" s="56"/>
       <c r="W148" s="56"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="55"/>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
@@ -6093,7 +6093,7 @@
       <c r="R149" s="56"/>
       <c r="W149" s="56"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="55"/>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -6114,7 +6114,7 @@
       <c r="R150" s="56"/>
       <c r="W150" s="56"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="55"/>
       <c r="B151" s="55"/>
       <c r="C151" s="55"/>
@@ -6135,7 +6135,7 @@
       <c r="R151" s="56"/>
       <c r="W151" s="56"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -6156,7 +6156,7 @@
       <c r="R152" s="56"/>
       <c r="W152" s="56"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -6177,7 +6177,7 @@
       <c r="R153" s="56"/>
       <c r="W153" s="56"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="55"/>
       <c r="B154" s="55"/>
       <c r="C154" s="55"/>
@@ -6198,7 +6198,7 @@
       <c r="R154" s="56"/>
       <c r="W154" s="56"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="55"/>
       <c r="B155" s="55"/>
       <c r="C155" s="55"/>
@@ -6219,7 +6219,7 @@
       <c r="R155" s="56"/>
       <c r="W155" s="56"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="55"/>
       <c r="B156" s="55"/>
       <c r="C156" s="55"/>
@@ -6240,7 +6240,7 @@
       <c r="R156" s="56"/>
       <c r="W156" s="56"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="55"/>
       <c r="B157" s="55"/>
       <c r="C157" s="55"/>
@@ -6261,7 +6261,7 @@
       <c r="R157" s="56"/>
       <c r="W157" s="56"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="55"/>
       <c r="B158" s="55"/>
       <c r="C158" s="55"/>
@@ -6282,7 +6282,7 @@
       <c r="R158" s="56"/>
       <c r="W158" s="56"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
@@ -6303,7 +6303,7 @@
       <c r="R159" s="56"/>
       <c r="W159" s="56"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="55"/>
       <c r="B160" s="55"/>
       <c r="C160" s="55"/>
@@ -6324,7 +6324,7 @@
       <c r="R160" s="56"/>
       <c r="W160" s="56"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="55"/>
       <c r="B161" s="55"/>
       <c r="C161" s="55"/>
@@ -6345,7 +6345,7 @@
       <c r="R161" s="56"/>
       <c r="W161" s="56"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="55"/>
       <c r="B162" s="55"/>
       <c r="C162" s="55"/>
@@ -6366,7 +6366,7 @@
       <c r="R162" s="56"/>
       <c r="W162" s="56"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="55"/>
       <c r="B163" s="55"/>
       <c r="C163" s="55"/>
@@ -6387,7 +6387,7 @@
       <c r="R163" s="56"/>
       <c r="W163" s="56"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="55"/>
       <c r="B164" s="55"/>
       <c r="C164" s="55"/>
@@ -6408,7 +6408,7 @@
       <c r="R164" s="56"/>
       <c r="W164" s="56"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="55"/>
       <c r="B165" s="55"/>
       <c r="C165" s="55"/>
@@ -6429,7 +6429,7 @@
       <c r="R165" s="56"/>
       <c r="W165" s="56"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="55"/>
       <c r="B166" s="55"/>
       <c r="C166" s="55"/>
@@ -6450,7 +6450,7 @@
       <c r="R166" s="56"/>
       <c r="W166" s="56"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="55"/>
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
@@ -6471,7 +6471,7 @@
       <c r="R167" s="56"/>
       <c r="W167" s="56"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="55"/>
       <c r="B168" s="55"/>
       <c r="C168" s="55"/>
@@ -6544,27 +6544,27 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
     <col min="10" max="10" width="44.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="54.77734375" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -6640,7 +6640,7 @@
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -6660,7 +6660,7 @@
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -6694,12 +6694,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -6707,22 +6707,22 @@
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:11" ht="19.2">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -6757,9 +6757,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
+    <row r="3" spans="1:11" ht="16.8">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -6770,9 +6770,9 @@
       <c r="J3" s="24"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
+    <row r="4" spans="1:11" ht="16.8">
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -6783,9 +6783,9 @@
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:11" ht="16.8">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -6796,9 +6796,9 @@
       <c r="J5" s="24"/>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+    <row r="6" spans="1:11" ht="16.8">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -6809,9 +6809,9 @@
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+    <row r="7" spans="1:11" ht="16.8">
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -6822,9 +6822,9 @@
       <c r="J7" s="24"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+    <row r="8" spans="1:11" ht="16.8">
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -6835,9 +6835,9 @@
       <c r="J8" s="24"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+    <row r="9" spans="1:11" ht="16.8">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -6848,9 +6848,9 @@
       <c r="J9" s="24"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
+    <row r="10" spans="1:11" ht="16.8">
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -6861,7 +6861,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.6">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="17"/>
@@ -6895,14 +6895,14 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -6910,39 +6910,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7022,77 +7022,77 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="288" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
+    <row r="5" spans="1:13" ht="300">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114" t="s">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="116"/>
-    </row>
-    <row r="6" spans="1:13" ht="384" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
+      <c r="M5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="405">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="116" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114" t="s">
+      <c r="K6" s="105"/>
+      <c r="L6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="116"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7107,7 +7107,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7122,7 +7122,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7137,7 +7137,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7152,7 +7152,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7167,7 +7167,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7182,7 +7182,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7197,7 +7197,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7212,7 +7212,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7227,7 +7227,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7273,14 +7273,14 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -7288,39 +7288,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7402,77 +7402,77 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="288" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
+    <row r="5" spans="1:13" ht="300">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114" t="s">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="116"/>
-    </row>
-    <row r="6" spans="1:13" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
+      <c r="M5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="409.05" customHeight="1">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="116" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114" t="s">
+      <c r="K6" s="105"/>
+      <c r="L6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="116"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7487,7 +7487,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7502,7 +7502,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7517,7 +7517,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7532,7 +7532,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7547,7 +7547,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7562,7 +7562,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7577,7 +7577,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7592,7 +7592,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7607,7 +7607,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7653,14 +7653,14 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" customWidth="1"/>
@@ -7668,39 +7668,39 @@
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7782,77 +7782,77 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="288" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
+    <row r="5" spans="1:13" ht="300">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114" t="s">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="116"/>
-    </row>
-    <row r="6" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
+      <c r="M5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="409.6">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="116" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114" t="s">
+      <c r="K6" s="105"/>
+      <c r="L6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="116"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7867,7 +7867,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7882,7 +7882,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7897,7 +7897,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7912,7 +7912,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7927,7 +7927,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7942,7 +7942,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7957,7 +7957,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7972,7 +7972,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7987,7 +7987,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8033,56 +8033,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8138,7 +8138,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -8153,7 +8153,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -8168,7 +8168,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8183,7 +8183,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8198,7 +8198,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8213,7 +8213,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8228,7 +8228,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8243,7 +8243,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8258,7 +8258,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8273,7 +8273,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8288,7 +8288,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8303,7 +8303,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8349,18 +8349,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="72" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="72" customFormat="1" ht="28.8">
       <c r="A2" s="69">
         <v>1</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8422,7 +8422,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8432,7 +8432,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8442,7 +8442,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8452,7 +8452,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8462,7 +8462,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8472,7 +8472,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8482,7 +8482,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8492,7 +8492,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8502,7 +8502,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8512,7 +8512,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8522,7 +8522,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8532,7 +8532,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8542,7 +8542,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8552,7 +8552,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8562,7 +8562,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8572,7 +8572,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>

--- a/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7.xlsx
+++ b/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.2.7 20170117\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="6444" windowWidth="28200" windowHeight="11016"/>
+    <workbookView xWindow="540" yWindow="6450" windowWidth="28200" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="199">
   <si>
     <t>No</t>
   </si>
@@ -702,12 +697,19 @@
 sysconfig.zmxy.privateKey=MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQDMbf0SF0fgenwQKEUX0bPVv1VXkC/36JGvyA2ZZpMhIxLSbXmutS0Fbm3XUfWhHlz3O6b2BmRRaFDsImMUK5LivBesdtZOdSQLQ/+XSJOuRHy6B16JkoIshLkSJT28lnVnXZmgySxY+rEiwNPxxj20duv4FQPgYTDK/vcSdsPLISp0Xu7+ESen5/fo5JS2lXaXfgsQb+N3Lm9zOBXa2yJnDANSGQ1znwiKrwk2YSjxolrRtWUrHUksarmtcJSv841FyvQVajV6j8kM2CgkARjDKnZEGnzsOgKfVD85KJw6s5G4e3656EVnrjA0asah5BVCjdyDTBPMHM7M6QLqyZKJAgMBAAECggEBALuWqkUxi8lXXATPjydeTLF1k3B4ZSwOA7HT13bOg3BC6QCjaKeCpT94p96P3N/uJszPtlPIZcG2AZvNqjFWEsFwbCDcI6d3Io4b5awC81FUk0d5f6yp/j2vxMv71Hz7a9xgLZs3PzSfRnBnlZUknna9MadCUX5ScR21fS86QExiDNfxcYRE0viqUG2LiwfrtRvi3eMUZPXPcJmilNxbGOGF490ucgKcUQqi8kbqLRllgavf/p1lmyrS77Dw6kkQIM6YpLO4nR8wTHWoyi625UCAjE1VJUWVsdGH3BzZj/pKXmwkGFDiq7073JclTvOS1TqAxNse+h50h4BqFWKaaikCgYEA6EORivrbL88HhhEGVdiNxYBdwkACoLcgYx75kzltxU0vL2EFzwsuBbr+AzhVQeteEeeVp0vJtlyThORyxosuanLwimnv2AMcbzo52AoputurkxZtgziE5WCrO5A7s8avsEi6NcrXT19+Gilf9Cssq9I+vVu7C0s4TctsYQljJYsCgYEA4VI54Az1Jc58B2NMSIqMsG++8Gy0OzBq7EUtpqPG9Qa6mvAEpWlO90nDACTeBZLaC7Hd1au/zELGnoSW4JWilnirWgupJzE5HklHG3IMNAtzOFvoX46xr4xiNPodK0CxWpFqi3tPIDWizRfQNooEnqKtKtX9DOhSyo+D2CcYMrsCgYAYYf+Fd5BLFJDVojPoDzPS6AbvvYiJFrBvt3C74+uCKvgpISZa9fF+6IKCFAffQ7Y8avNq/KnQWyeha9ogvbvBsQ9PeI+VPb5ebt5jr61x0F3SsygL/oL1EZDoT9v0o4cOGpRx0TmJO50hYfaQy3eFEi1D871PEjZ29EQMa8/cwQKBgQCvUHsXiP11XSPD288O4j51SX0XNH1HUHThQTIz5lp3a7TluLrkuPtoDUxcYFMfoxNk5g/koK2rEInZ7PA37jWDPoCUn14N0I7QsdNR13sHQ6FyyJAVScGXBXOkJLdtX/ier2ZnAJqgRRtW2KB4zwqpI4n5OmaaFGnWkbPUCxcY4QKBgEay2X6WJ+d2QizMv6QOtSz1nmg5nsKAdLcQHO0ir02BlRp8yFBA8nnbJGyNUH0DHjB1dvDaGGna/Zd2u0TT5VRr4cKcvM8vYHwGabPcPLmjsvSxiyNmUvYMNHFtOZFmBp+jVx0upA5iy448e0Dn1GZN2ZvAk5cziTzx3xMerRM9
 sysconfig.zmxy.zhimaPublicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAshVdeYHvFwZdF08NUVYe+PqGA+QiUBLdf4w7XDMVOQDSXFmkk6zxRRlHZ97OS/NuajlayX2LTjDdPf/omkWXLqHoxHKlimeiLUvb/8KqkiOeExF1d6zlbOzcIoafxC6dzrFckVYLEWbiEGlSDgxOxU3Q8QuDbwosRCMRMDP6vZLrr6HKtAcyfQ5ZyDrAJd2hN4eeJF/6GbP9rdBf43KYaCyDH8FWciw4oCA3i17KXr81eRlNEGaDQ9DiROFGR2QDAVuzdD0NYBDBxUaTw/4B+I+Y1iqb0EU4PqAOaDjpwn0NOXoW+ARlKNDVQOXSHQI1PSxcBOW61AdLRU4GHSYfNQIDAQAB</t>
   </si>
+  <si>
+    <t>DV-2217</t>
+  </si>
+  <si>
+    <t>DV-2219</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -856,6 +858,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1082,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,6 +1442,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,7 +1462,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1468,6 +1481,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1487,7 +1568,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1807,35 +1888,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="44" customWidth="1"/>
-    <col min="2" max="3" width="9.77734375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="60.109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="44" customWidth="1"/>
+    <col min="2" max="3" width="9.75" style="44" customWidth="1"/>
+    <col min="4" max="4" width="60.125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="44" customWidth="1"/>
     <col min="8" max="8" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="44" customWidth="1"/>
     <col min="10" max="10" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="45" customWidth="1"/>
-    <col min="12" max="14" width="11.77734375" style="44" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="45" customWidth="1"/>
+    <col min="12" max="14" width="11.75" style="44" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="45" customWidth="1"/>
     <col min="19" max="20" width="12" style="46" customWidth="1"/>
     <col min="21" max="21" width="17" style="46" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" style="46" customWidth="1"/>
-    <col min="23" max="23" width="41.77734375" style="45" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="46" customWidth="1"/>
+    <col min="23" max="23" width="41.75" style="45" customWidth="1"/>
+    <col min="24" max="24" width="8.75" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2155,7 +2236,7 @@
       <c r="W5" s="100"/>
       <c r="X5" s="62"/>
     </row>
-    <row r="6" spans="1:24" s="43" customFormat="1" ht="45">
+    <row r="6" spans="1:24" s="43" customFormat="1" ht="49.5">
       <c r="A6" s="85">
         <v>5</v>
       </c>
@@ -2217,7 +2298,7 @@
       <c r="W6" s="101"/>
       <c r="X6" s="62"/>
     </row>
-    <row r="7" spans="1:24" s="43" customFormat="1" ht="30">
+    <row r="7" spans="1:24" s="43" customFormat="1" ht="16.5">
       <c r="A7" s="85">
         <v>6</v>
       </c>
@@ -2340,7 +2421,7 @@
       <c r="V8" s="91"/>
       <c r="W8" s="92"/>
     </row>
-    <row r="9" spans="1:24" s="73" customFormat="1" ht="30">
+    <row r="9" spans="1:24" s="73" customFormat="1" ht="16.5">
       <c r="A9" s="85">
         <v>8</v>
       </c>
@@ -2767,7 +2848,9 @@
       <c r="R15" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="81"/>
+      <c r="S15" s="117" t="s">
+        <v>197</v>
+      </c>
       <c r="T15" s="90"/>
       <c r="U15" s="91"/>
       <c r="V15" s="92"/>
@@ -2826,13 +2909,15 @@
       <c r="R16" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="103"/>
+      <c r="S16" s="117" t="s">
+        <v>198</v>
+      </c>
       <c r="T16" s="103"/>
       <c r="U16" s="77"/>
       <c r="V16" s="104"/>
       <c r="W16" s="77"/>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -2857,7 +2942,7 @@
       <c r="V17" s="55"/>
       <c r="W17" s="56"/>
     </row>
-    <row r="18" spans="1:23" ht="15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -2882,7 +2967,7 @@
       <c r="V18" s="55"/>
       <c r="W18" s="56"/>
     </row>
-    <row r="19" spans="1:23" ht="15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -2907,7 +2992,7 @@
       <c r="V19" s="55"/>
       <c r="W19" s="63"/>
     </row>
-    <row r="20" spans="1:23" ht="15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -2932,7 +3017,7 @@
       <c r="V20" s="55"/>
       <c r="W20" s="63"/>
     </row>
-    <row r="21" spans="1:23" ht="15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -2957,7 +3042,7 @@
       <c r="V21" s="55"/>
       <c r="W21" s="63"/>
     </row>
-    <row r="22" spans="1:23" ht="15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -2982,7 +3067,7 @@
       <c r="V22" s="65"/>
       <c r="W22" s="66"/>
     </row>
-    <row r="23" spans="1:23" ht="15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -3007,7 +3092,7 @@
       <c r="V23" s="67"/>
       <c r="W23" s="66"/>
     </row>
-    <row r="24" spans="1:23" ht="15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -3032,7 +3117,7 @@
       <c r="V24" s="68"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:23" ht="15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -3057,7 +3142,7 @@
       <c r="V25" s="67"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:23" ht="15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
@@ -3082,7 +3167,7 @@
       <c r="V26" s="67"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23" ht="15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -3107,7 +3192,7 @@
       <c r="V27" s="64"/>
       <c r="W27" s="58"/>
     </row>
-    <row r="28" spans="1:23" ht="15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -3132,7 +3217,7 @@
       <c r="V28" s="55"/>
       <c r="W28" s="63"/>
     </row>
-    <row r="29" spans="1:23" ht="15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -3157,7 +3242,7 @@
       <c r="V29" s="55"/>
       <c r="W29" s="63"/>
     </row>
-    <row r="30" spans="1:23" ht="15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -3182,7 +3267,7 @@
       <c r="V30" s="55"/>
       <c r="W30" s="63"/>
     </row>
-    <row r="31" spans="1:23" ht="15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -3207,7 +3292,7 @@
       <c r="V31" s="67"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23" ht="15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -3232,7 +3317,7 @@
       <c r="V32" s="55"/>
       <c r="W32" s="61"/>
     </row>
-    <row r="33" spans="1:23" ht="15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3257,7 +3342,7 @@
       <c r="V33" s="55"/>
       <c r="W33" s="63"/>
     </row>
-    <row r="34" spans="1:23" ht="15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3282,7 +3367,7 @@
       <c r="V34" s="55"/>
       <c r="W34" s="63"/>
     </row>
-    <row r="35" spans="1:23" ht="15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3307,7 +3392,7 @@
       <c r="V35" s="55"/>
       <c r="W35" s="63"/>
     </row>
-    <row r="36" spans="1:23" ht="15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3332,7 +3417,7 @@
       <c r="V36" s="55"/>
       <c r="W36" s="63"/>
     </row>
-    <row r="37" spans="1:23" ht="15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3357,7 +3442,7 @@
       <c r="V37" s="55"/>
       <c r="W37" s="63"/>
     </row>
-    <row r="38" spans="1:23" ht="15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3382,7 +3467,7 @@
       <c r="V38" s="55"/>
       <c r="W38" s="63"/>
     </row>
-    <row r="39" spans="1:23" ht="15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3407,7 +3492,7 @@
       <c r="V39" s="55"/>
       <c r="W39" s="63"/>
     </row>
-    <row r="40" spans="1:23" ht="15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3432,7 +3517,7 @@
       <c r="V40" s="55"/>
       <c r="W40" s="63"/>
     </row>
-    <row r="41" spans="1:23" ht="15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3457,7 +3542,7 @@
       <c r="V41" s="55"/>
       <c r="W41" s="63"/>
     </row>
-    <row r="42" spans="1:23" ht="15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3482,7 +3567,7 @@
       <c r="V42" s="55"/>
       <c r="W42" s="63"/>
     </row>
-    <row r="43" spans="1:23" ht="15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="47"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -3507,7 +3592,7 @@
       <c r="V43" s="64"/>
       <c r="W43" s="63"/>
     </row>
-    <row r="44" spans="1:23" ht="15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -3532,7 +3617,7 @@
       <c r="V44" s="64"/>
       <c r="W44" s="63"/>
     </row>
-    <row r="45" spans="1:23" ht="15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -3557,7 +3642,7 @@
       <c r="V45" s="55"/>
       <c r="W45" s="56"/>
     </row>
-    <row r="46" spans="1:23" ht="15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -3582,7 +3667,7 @@
       <c r="V46" s="55"/>
       <c r="W46" s="56"/>
     </row>
-    <row r="47" spans="1:23" ht="15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -3607,7 +3692,7 @@
       <c r="V47" s="55"/>
       <c r="W47" s="56"/>
     </row>
-    <row r="48" spans="1:23" ht="15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -3632,7 +3717,7 @@
       <c r="V48" s="55"/>
       <c r="W48" s="56"/>
     </row>
-    <row r="49" spans="1:23" ht="15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -3657,7 +3742,7 @@
       <c r="V49" s="55"/>
       <c r="W49" s="56"/>
     </row>
-    <row r="50" spans="1:23" ht="15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -3682,7 +3767,7 @@
       <c r="V50" s="55"/>
       <c r="W50" s="56"/>
     </row>
-    <row r="51" spans="1:23" ht="15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -3707,7 +3792,7 @@
       <c r="V51" s="55"/>
       <c r="W51" s="56"/>
     </row>
-    <row r="52" spans="1:23" ht="15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -3732,7 +3817,7 @@
       <c r="V52" s="55"/>
       <c r="W52" s="56"/>
     </row>
-    <row r="53" spans="1:23" ht="15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -3757,7 +3842,7 @@
       <c r="V53" s="55"/>
       <c r="W53" s="56"/>
     </row>
-    <row r="54" spans="1:23" ht="15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -3782,7 +3867,7 @@
       <c r="V54" s="55"/>
       <c r="W54" s="56"/>
     </row>
-    <row r="55" spans="1:23" ht="15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -3807,7 +3892,7 @@
       <c r="V55" s="55"/>
       <c r="W55" s="56"/>
     </row>
-    <row r="56" spans="1:23" ht="15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3832,7 +3917,7 @@
       <c r="V56" s="55"/>
       <c r="W56" s="56"/>
     </row>
-    <row r="57" spans="1:23" ht="15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -3857,7 +3942,7 @@
       <c r="V57" s="55"/>
       <c r="W57" s="56"/>
     </row>
-    <row r="58" spans="1:23" ht="15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -3882,7 +3967,7 @@
       <c r="V58" s="55"/>
       <c r="W58" s="56"/>
     </row>
-    <row r="59" spans="1:23" ht="15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -3907,7 +3992,7 @@
       <c r="V59" s="55"/>
       <c r="W59" s="56"/>
     </row>
-    <row r="60" spans="1:23" ht="15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -3932,7 +4017,7 @@
       <c r="V60" s="55"/>
       <c r="W60" s="56"/>
     </row>
-    <row r="61" spans="1:23" ht="15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -3957,7 +4042,7 @@
       <c r="V61" s="55"/>
       <c r="W61" s="56"/>
     </row>
-    <row r="62" spans="1:23" ht="15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -3982,7 +4067,7 @@
       <c r="V62" s="55"/>
       <c r="W62" s="56"/>
     </row>
-    <row r="63" spans="1:23" ht="15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -4007,7 +4092,7 @@
       <c r="V63" s="55"/>
       <c r="W63" s="56"/>
     </row>
-    <row r="64" spans="1:23" ht="15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -4032,7 +4117,7 @@
       <c r="V64" s="55"/>
       <c r="W64" s="56"/>
     </row>
-    <row r="65" spans="1:23" ht="15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -4057,7 +4142,7 @@
       <c r="V65" s="55"/>
       <c r="W65" s="56"/>
     </row>
-    <row r="66" spans="1:23" ht="15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -4082,7 +4167,7 @@
       <c r="V66" s="55"/>
       <c r="W66" s="56"/>
     </row>
-    <row r="67" spans="1:23" ht="15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -4107,7 +4192,7 @@
       <c r="V67" s="55"/>
       <c r="W67" s="56"/>
     </row>
-    <row r="68" spans="1:23" ht="15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -4132,7 +4217,7 @@
       <c r="V68" s="55"/>
       <c r="W68" s="56"/>
     </row>
-    <row r="69" spans="1:23" ht="15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -4157,7 +4242,7 @@
       <c r="V69" s="55"/>
       <c r="W69" s="56"/>
     </row>
-    <row r="70" spans="1:23" ht="15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -4182,7 +4267,7 @@
       <c r="V70" s="55"/>
       <c r="W70" s="56"/>
     </row>
-    <row r="71" spans="1:23" ht="15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -4207,7 +4292,7 @@
       <c r="V71" s="55"/>
       <c r="W71" s="56"/>
     </row>
-    <row r="72" spans="1:23" ht="15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4232,7 +4317,7 @@
       <c r="V72" s="55"/>
       <c r="W72" s="56"/>
     </row>
-    <row r="73" spans="1:23" ht="15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -4257,7 +4342,7 @@
       <c r="V73" s="55"/>
       <c r="W73" s="56"/>
     </row>
-    <row r="74" spans="1:23" ht="15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -4282,7 +4367,7 @@
       <c r="V74" s="55"/>
       <c r="W74" s="56"/>
     </row>
-    <row r="75" spans="1:23" ht="15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -4307,7 +4392,7 @@
       <c r="V75" s="55"/>
       <c r="W75" s="56"/>
     </row>
-    <row r="76" spans="1:23" ht="15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -4332,7 +4417,7 @@
       <c r="V76" s="55"/>
       <c r="W76" s="56"/>
     </row>
-    <row r="77" spans="1:23" ht="15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -6530,38 +6615,40 @@
     <hyperlink ref="S11" r:id="rId7"/>
     <hyperlink ref="S12" r:id="rId8"/>
     <hyperlink ref="S14" r:id="rId9"/>
+    <hyperlink ref="S15" r:id="rId10" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2217"/>
+    <hyperlink ref="S16" r:id="rId11" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-2217"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="54.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="54.75" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.109375" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
@@ -6687,27 +6774,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
@@ -6722,7 +6809,7 @@
       <c r="J1" s="109"/>
       <c r="K1" s="109"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -6757,7 +6844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="110"/>
       <c r="B3" s="110"/>
       <c r="C3" s="17"/>
@@ -6770,7 +6857,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="16.8">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="111"/>
       <c r="B4" s="112"/>
       <c r="C4" s="17"/>
@@ -6783,7 +6870,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="110"/>
       <c r="B5" s="110"/>
       <c r="C5" s="17"/>
@@ -6796,7 +6883,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="16.8">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="112"/>
       <c r="B6" s="112"/>
       <c r="C6" s="17"/>
@@ -6809,7 +6896,7 @@
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="16.8">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="112"/>
       <c r="B7" s="112"/>
       <c r="C7" s="17"/>
@@ -6822,7 +6909,7 @@
       <c r="J7" s="24"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="16.8">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="112"/>
       <c r="B8" s="112"/>
       <c r="C8" s="17"/>
@@ -6835,7 +6922,7 @@
       <c r="J8" s="24"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="16.8">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="112"/>
       <c r="B9" s="112"/>
       <c r="C9" s="17"/>
@@ -6848,7 +6935,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="16.8">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="111"/>
       <c r="B10" s="111"/>
       <c r="C10" s="17"/>
@@ -6861,7 +6948,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="17"/>
@@ -6888,26 +6975,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6942,7 +7029,7 @@
       <c r="L2" s="115"/>
       <c r="M2" s="116"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -6983,7 +7070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7022,7 +7109,7 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="300">
+    <row r="5" spans="1:13" ht="297">
       <c r="A5" s="105">
         <v>1</v>
       </c>
@@ -7057,7 +7144,7 @@
       </c>
       <c r="M5" s="107"/>
     </row>
-    <row r="6" spans="1:13" ht="405">
+    <row r="6" spans="1:13" ht="330">
       <c r="A6" s="105">
         <v>2</v>
       </c>
@@ -7092,7 +7179,7 @@
       </c>
       <c r="M6" s="107"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7107,7 +7194,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7122,7 +7209,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7137,7 +7224,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7152,7 +7239,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7167,7 +7254,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7182,7 +7269,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7197,7 +7284,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7212,7 +7299,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7227,7 +7314,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7266,26 +7353,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7320,7 +7407,7 @@
       <c r="L2" s="115"/>
       <c r="M2" s="116"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7361,7 +7448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7402,7 +7489,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="300">
+    <row r="5" spans="1:13" ht="297">
       <c r="A5" s="105">
         <v>1</v>
       </c>
@@ -7437,7 +7524,7 @@
       </c>
       <c r="M5" s="107"/>
     </row>
-    <row r="6" spans="1:13" ht="409.05" customHeight="1">
+    <row r="6" spans="1:13" ht="409.15" customHeight="1">
       <c r="A6" s="105">
         <v>2</v>
       </c>
@@ -7472,7 +7559,7 @@
       </c>
       <c r="M6" s="107"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7487,7 +7574,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7502,7 +7589,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7517,7 +7604,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7532,7 +7619,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7547,7 +7634,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7562,7 +7649,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7577,7 +7664,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7592,7 +7679,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7607,7 +7694,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7646,26 +7733,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7700,7 +7787,7 @@
       <c r="L2" s="115"/>
       <c r="M2" s="116"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7741,7 +7828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7782,7 +7869,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="300">
+    <row r="5" spans="1:13" ht="297">
       <c r="A5" s="105">
         <v>1</v>
       </c>
@@ -7817,7 +7904,7 @@
       </c>
       <c r="M5" s="107"/>
     </row>
-    <row r="6" spans="1:13" ht="409.6">
+    <row r="6" spans="1:13" ht="330">
       <c r="A6" s="105">
         <v>2</v>
       </c>
@@ -7852,7 +7939,7 @@
       </c>
       <c r="M6" s="107"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7867,7 +7954,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7882,7 +7969,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7897,7 +7984,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7912,7 +7999,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7927,7 +8014,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7942,7 +8029,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7957,7 +8044,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7972,7 +8059,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7987,7 +8074,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8026,28 +8113,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8082,7 +8169,7 @@
       <c r="L2" s="115"/>
       <c r="M2" s="116"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -8123,7 +8210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8138,7 +8225,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -8153,7 +8240,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -8168,7 +8255,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8183,7 +8270,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -8198,7 +8285,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8213,7 +8300,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8228,7 +8315,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8243,7 +8330,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8258,7 +8345,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8273,7 +8360,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8288,7 +8375,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8303,7 +8390,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8342,25 +8429,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8386,7 +8473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="72" customFormat="1" ht="28.8">
+    <row r="2" spans="1:8" s="72" customFormat="1" ht="27">
       <c r="A2" s="69">
         <v>1</v>
       </c>
